--- a/P0054/09_FICHAS/N3-FD-General.xlsx
+++ b/P0054/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0054/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="13_ncr:1_{742CE988-50A5-4DE0-81A3-2249BF4E8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E815401-C45C-460C-9108-0AAADC1D1063}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="13_ncr:1_{742CE988-50A5-4DE0-81A3-2249BF4E8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F78B12B-7371-45E6-9281-07732333EDCE}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="255">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -797,16 +797,13 @@
     <t>Volumen, rompederos, tiempo, caudal</t>
   </si>
   <si>
-    <t>NUEVA</t>
-  </si>
-  <si>
     <t>R0071</t>
   </si>
   <si>
-    <t>H_Linea_Bse_Inund_100k_2001.shp</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Documents\S3\Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0054\02_PRODUCTOS\GIS_Data\shp\Linea Base inundacion 2001\Shapes</t>
+    <t>H_Linea_Bse_Inund_100k_2001</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054/02_PRODUCTOS/GIS_Data/shp/Linea Base inundacion 2001/Shapes/H_Linea_Bse_Inund_100k_2001.shp</t>
   </si>
 </sst>
 </file>
@@ -1167,11 +1164,11 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pane ySplit="1" topLeftCell="E69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -4483,7 +4480,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15">
+    <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15">
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -4585,19 +4582,25 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" t="s">
         <v>253</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>254</v>
       </c>
-      <c r="E69" t="s">
-        <v>255</v>
+      <c r="F69">
+        <v>9999</v>
+      </c>
+      <c r="G69">
+        <v>9999</v>
       </c>
       <c r="J69" t="s">
         <v>224</v>
@@ -4609,11 +4612,11 @@
       <sortCondition ref="E1:E68"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P0054/09_FICHAS/N3-FD-General.xlsx
+++ b/P0054/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0054/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="13_ncr:1_{742CE988-50A5-4DE0-81A3-2249BF4E8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F78B12B-7371-45E6-9281-07732333EDCE}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{742CE988-50A5-4DE0-81A3-2249BF4E8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EC479C3-BDD1-4072-8995-7ECF57EBF5D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,23 +1164,23 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="157.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -4607,11 +4607,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P68" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P68">
-      <sortCondition ref="E1:E68"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
